--- a/Enslaved/Original/NEN/Results/Enslaved_NEN_Mistral_results_Unevaluated.xlsx
+++ b/Enslaved/Original/NEN/Results/Enslaved_NEN_Mistral_results_Unevaluated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/graph-rag-iswc-2025/util-scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/knowledge-conceptualization-graphrag/util-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CC75E9-3DA0-0D45-9143-A793B26AD441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54532531-3F19-0547-83BA-CD1CC1CE8773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,90 +48,86 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>```sparql
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-PREFIX ex: &lt;http://example.org/&gt;
-SELECT ?enslavedPerson ?fullName
+SELECT ?enslavedPerson
 WHERE {
-  ?enslavedPerson rdf:type ex:Agent ;
-                  ex:hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord ex:hasParticipantRoleType ex:ParticipantRoleTypes.txt ;
-             ex:recordedAt ?event .
-  ?event ex:recordedAt ?countyEvent .
-  ?countyEvent ex:hasTemporalExtent ?temporalExtent .
-  ?temporalExtent time:hasBeginning ?beginning ;
-                  time:hasEnd ?end ;
-                  time:inXSDDateTime ?century .
-  ?enslavedPerson ex:hasNameRecord ?nameRecord .
-  ?nameRecord ex:hasPreferredNameVariant ?nameVariant .
-  ?nameVariant ex:fullNameAsString ?fullName .
-  FILTER (?beginning &gt;= "1700-01-01T00:00:00"^^xsd:dateTime &amp;&amp; ?end &lt;= "1799-12-31T23:59:59"^^xsd:dateTime)
-  FILTER (?countyEvent = ex:CountyX)
-}
-```</t>
+  ?enslavedPerson rdf:type Agent .
+  ?enslavedPerson hasAgentRecord ?agentRecord .
+  ?agentRecord hasTemporalExtent ?temporalExtent .
+  ?temporalExtent fallsWithin ?timespan .
+  ?timespan startsAt ?startDate .
+  ?timespan endsAt ?endDate .
+  ?agentRecord recordedAt ?event .
+  ?event hasName "County X" .
+  FILTER(?startDate &gt;= "17XX-01-01"^^xsd:date &amp;&amp; ?endDate &lt;= "17XX-12-31"^^xsd:date)
+}</t>
   </si>
   <si>
     <t>{
-    "id": "c80bb13478bf42c096443acb05dcc5e2",
+    "id": "302d4f0bec7a4475a9b204f4001a399e",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 839,
-        "completion_tokens": 445,
-        "total_tokens": 1284
+        "prompt_tokens": 833,
+        "completion_tokens": 306,
+        "total_tokens": 1139
     },
-    "created": 1747163273,
+    "created": 1752714522,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\nPREFIX ex: &lt;http://example.org/&gt;\n\nSELECT ?enslavedPerson ?fullName\nWHERE {\n  ?enslavedPerson rdf:type ex:Agent ;\n                  ex:hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord ex:hasParticipantRoleType ex:ParticipantRoleTypes.txt ;\n             ex:recordedAt ?event .\n  ?event ex:recordedAt ?countyEvent .\n  ?countyEvent ex:hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:hasBeginning ?beginning ;\n                  time:hasEnd ?end ;\n                  time:inXSDDateTime ?century .\n  ?enslavedPerson ex:hasNameRecord ?nameRecord .\n  ?nameRecord ex:hasPreferredNameVariant ?nameVariant .\n  ?nameVariant ex:fullNameAsString ?fullName .\n\n  FILTER (?beginning &gt;= \"1700-01-01T00:00:00\"^^xsd:dateTime &amp;&amp; ?end &lt;= \"1799-12-31T23:59:59\"^^xsd:dateTime)\n  FILTER (?countyEvent = ex:CountyX)\n}\n```",
+                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedPerson\nWHERE {\n  ?enslavedPerson rdf:type Agent .\n  ?enslavedPerson hasAgentRecord ?agentRecord .\n  ?agentRecord hasTemporalExtent ?temporalExtent .\n  ?temporalExtent fallsWithin ?timespan .\n  ?timespan startsAt ?startDate .\n  ?timespan endsAt ?endDate .\n  ?agentRecord recordedAt ?event .\n  ?event hasName \"County X\" .\n  FILTER(?startDate &gt;= \"17XX-01-01\"^^xsd:date &amp;&amp; ?endDate &lt;= \"17XX-12-31\"^^xsd:date)\n}",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -156,45 +152,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -206,32 +206,38 @@
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
 SELECT ?agent ?gender ?ethnicity ?location
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasSexRecord ?sexRecord .
-  ?sexRecord hasValue ?gender .
-  ?agent hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord hasParticipantRoleType ?ethnicity .
-  ?roleRecord roleProvidedBy ?event .
-  ?event recordedAt ?location .
+  ?agentRecord rdf:type :AgentRecord ;
+               :hasName ?agent .
+  ?agentRecord :hasAgent ?agent .
+  ?agent :hasNameVariant ?nameVariant .
+  ?nameVariant :fullNameAsString ?fullName .
+  ?agentRecord :hasSexRecord ?sexRecord .
+  ?sexRecord :sexTypes.txt ?gender .
+  ?agentRecord :hasExternalReference ?ethReference
+  ?ethReference :hasEthnicity ?ethnicity
+  OPTIONAL {
+    ?agentRecord :hasLocationRecord ?locationRecord .
+    ?locationRecord :hasLocation ?location .
+  }
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "8935bf86ff784caea32c210bd448e172",
+    "id": "25fcaf390d1b4172a360466cc0e98f3d",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 857,
-        "completion_tokens": 248,
-        "total_tokens": 1105
+        "prompt_tokens": 851,
+        "completion_tokens": 310,
+        "total_tokens": 1161
     },
-    "created": 1747163288,
+    "created": 1752719527,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?agent ?gender ?ethnicity ?location\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasSexRecord ?sexRecord .\n  ?sexRecord hasValue ?gender .\n  ?agent hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord hasParticipantRoleType ?ethnicity .\n  ?roleRecord roleProvidedBy ?event .\n  ?event recordedAt ?location .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?agent ?gender ?ethnicity ?location\nWHERE {\n  ?agentRecord rdf:type :AgentRecord ;\n               :hasName ?agent .\n  ?agentRecord :hasAgent ?agent .\n  ?agent :hasNameVariant ?nameVariant .\n  ?nameVariant :fullNameAsString ?fullName .\n  ?agentRecord :hasSexRecord ?sexRecord .\n  ?sexRecord :sexTypes.txt ?gender .\n  ?agentRecord :hasExternalReference ?ethReference\n  ?ethReference :hasEthnicity ?ethnicity\n  OPTIONAL {\n    ?agentRecord :hasLocationRecord ?locationRecord .\n    ?locationRecord :hasLocation ?location .\n  }\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -256,45 +262,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -306,30 +316,32 @@
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
 SELECT ?place ?year ?populationCount
 WHERE {
-  ?record rdf:type :PopulationRecord .
-  ?record :hasPlace ?place .
-  ?record :hasYear ?year .
-  ?record :hasPopulationCount ?populationCount .
-  ?record :hasEnslavedStatus "enslaved" .
+  ?agentRecord rdf:type &lt;AgentRecord&gt; ;
+               hasTemporalExtent ?temporalExtent ;
+               &lt;hasPopulationCount&gt; ?populationCount ;
+               &lt;recordedAt&gt; ?event .
+  ?event &lt;hasEventType&gt; "Enslavement" ;
+         &lt;hasPlace&gt; ?place .
+  ?temporalExtent time:year ?year .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "c3048158b37b47828c7cf911e3d84b9b",
+    "id": "ba9783f0f8aa40e2bb55b06876db0e36",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 840,
-        "completion_tokens": 226,
-        "total_tokens": 1066
+        "prompt_tokens": 834,
+        "completion_tokens": 253,
+        "total_tokens": 1087
     },
-    "created": 1747163301,
+    "created": 1752719574,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?place ?year ?populationCount\nWHERE {\n  ?record rdf:type :PopulationRecord .\n  ?record :hasPlace ?place .\n  ?record :hasYear ?year .\n  ?record :hasPopulationCount ?populationCount .\n  ?record :hasEnslavedStatus \"enslaved\" .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?place ?year ?populationCount\nWHERE {\n  ?agentRecord rdf:type &lt;AgentRecord&gt; ;\n               hasTemporalExtent ?temporalExtent ;\n               &lt;hasPopulationCount&gt; ?populationCount ;\n               &lt;recordedAt&gt; ?event .\n  ?event &lt;hasEventType&gt; \"Enslavement\" ;\n         &lt;hasPlace&gt; ?place .\n  ?temporalExtent time:year ?year .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -354,78 +366,79 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>```sparql
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
 SELECT DISTINCT ?literacyStatus
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasLiteracyStatusRecord ?literacyRecord .
-  ?literacyRecord hasValue ?literacyStatus .
-}
-```</t>
+  ?agentRecord rdf:type :LiteracyRecord ;
+               :hasValue ?literacyStatus .
+}</t>
   </si>
   <si>
     <t>{
-    "id": "ca2a8ed62f2945d48d83043c8f51f344",
+    "id": "c400f4a18be846818e405d0e106152f9",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 838,
-        "completion_tokens": 201,
-        "total_tokens": 1039
+        "prompt_tokens": 832,
+        "completion_tokens": 182,
+        "total_tokens": 1014
     },
-    "created": 1747163313,
+    "created": 1752719596,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT DISTINCT ?literacyStatus\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasLiteracyStatusRecord ?literacyRecord .\n  ?literacyRecord hasValue ?literacyStatus .\n}\n```",
+                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT DISTINCT ?literacyStatus\nWHERE {\n  ?agentRecord rdf:type :LiteracyRecord ;\n               :hasValue ?literacyStatus .\n}",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -450,84 +463,82 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>```sparql
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedPerson ?place ?relationshipType WHERE {
-  ?enslavedPerson rdf:type :Agent ;
-                  :hasParticipantRoleRecord [
-                    :hasParticipantRoleType :Enslaved ;
-                    :roleProvidedBy ?event
-                  ] .
-  ?event :hasLocation ?place .
-  OPTIONAL {
-    ?enslavedPerson :hasInterAgentRelationshipRecord [
-      :hasInterAgentRelationshipType ?relationshipType ;
-      :isRelationshipTo ?place
-    ] .
-  }
-}</t>
+SELECT ?place ?enslavedPerson ?relationship
+WHERE {
+  ?enslavedPerson rdf:type Agent .
+  ?enslavedPerson ?relationship ?place .
+  ?place rdf:type GeographicalPlace .
+}
+```</t>
   </si>
   <si>
     <t>{
-    "id": "c58cf429dc4048529276ae5879e335a1",
+    "id": "126a0db4f4ba4a818606e60102e9058d",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 843,
-        "completion_tokens": 274,
-        "total_tokens": 1117
+        "prompt_tokens": 837,
+        "completion_tokens": 203,
+        "total_tokens": 1040
     },
-    "created": 1747163325,
+    "created": 1752719641,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedPerson ?place ?relationshipType WHERE {\n  ?enslavedPerson rdf:type :Agent ;\n                  :hasParticipantRoleRecord [\n                    :hasParticipantRoleType :Enslaved ;\n                    :roleProvidedBy ?event\n                  ] .\n  ?event :hasLocation ?place .\n  OPTIONAL {\n    ?enslavedPerson :hasInterAgentRelationshipRecord [\n      :hasInterAgentRelationshipType ?relationshipType ;\n      :isRelationshipTo ?place\n    ] .\n  }\n}",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?place ?enslavedPerson ?relationship\nWHERE {\n  ?enslavedPerson rdf:type Agent .\n  ?enslavedPerson ?relationship ?place .\n  ?place rdf:type GeographicalPlace .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -552,83 +563,88 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT DISTINCT ?fullName
-WHERE {
-  ?agent rdf:type Agent ;
-         hasAgeRecord ?ageRecord .
-  ?ageRecord hasValue "Child" ;
-             hasTemporalExtent ?temporalExtent .
-  ?temporalExtent time:hasBeginning ?beginning .
-  ?beginning time:inXSDDateTime "1775-04-19T00:00:00" ;
-              time:inXSDDateTime "1783-09-03T00:00:00" .
-  ?agent hasNameRecord ?nameRecord .
-  ?nameRecord hasNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?fullName .
+SELECT DISTINCT ?commonName WHERE {
+  ?agent rdf:type Agent .
+  ?agentRecord rdf:type NameRecord ;
+               hasAgentRecord ?agent .
+  ?agentRecord hasTemporalExtent ?temporalExtent .
+  ?temporalExtent fallsWithin ?timespan .
+  ?timespan startsAt "1775-04-19"^^xsd:date .
+  ?timespan endsAt "1783-09-03"^^xsd:date .
+  ?agentRecord hasNameVariant ?nameVariant .
+  ?nameVariant hasFirstnameAsString ?commonName .
+  ?agentRecord hasPreferredNameVariant ?nameVariant .
+  ?agentRecord hasPreferredNameVariant ?nameVariant .
+  ?agentRecord NameVariant:fullNameAsString ?commonName .
 }</t>
   </si>
   <si>
     <t>{
-    "id": "3aaf530b29494f2aaaa4d80e12e8e356",
+    "id": "4b54e802c3e04ed7a36dd3836b5a8d10",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 841,
-        "completion_tokens": 318,
-        "total_tokens": 1159
+        "prompt_tokens": 835,
+        "completion_tokens": 337,
+        "total_tokens": 1172
     },
-    "created": 1747163341,
+    "created": 1752719644,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT DISTINCT ?fullName\nWHERE {\n  ?agent rdf:type Agent ;\n         hasAgeRecord ?ageRecord .\n  ?ageRecord hasValue \"Child\" ;\n             hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:hasBeginning ?beginning .\n  ?beginning time:inXSDDateTime \"1775-04-19T00:00:00\" ;\n              time:inXSDDateTime \"1783-09-03T00:00:00\" .\n  ?agent hasNameRecord ?nameRecord .\n  ?nameRecord hasNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?fullName .\n}",
+                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT DISTINCT ?commonName WHERE {\n  ?agent rdf:type Agent .\n  ?agentRecord rdf:type NameRecord ;\n               hasAgentRecord ?agent .\n  ?agentRecord hasTemporalExtent ?temporalExtent .\n  ?temporalExtent fallsWithin ?timespan .\n  ?timespan startsAt \"1775-04-19\"^^xsd:date .\n  ?timespan endsAt \"1783-09-03\"^^xsd:date .\n  ?agentRecord hasNameVariant ?nameVariant .\n  ?nameVariant hasFirstnameAsString ?commonName .\n  ?agentRecord hasPreferredNameVariant ?nameVariant .\n  ?agentRecord hasPreferredNameVariant ?nameVariant .\n  ?agentRecord NameVariant:fullNameAsString ?commonName .\n}",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -653,45 +669,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -701,36 +721,38 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslaved ?enslaverName ?location
+SELECT ?enslaved ?enslaver ?location
 WHERE {
-  ?enslaved rdf:type Agent .
-  ?enslaved hasInterAgentRelationshipRecord ?relationship .
-  ?relationship hasInterAgentRelationshipType "enslaved" .
-  ?relationship isRelationshipTo ?enslaver .
-  ?enslaver hasNameRecord ?nameRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?enslaverName .
-  ?relationship recordedAt ?event .
-  ?event rdfs:label ?location .
+  ?relationship rdf:type &lt;InterAgentRelationshipRecord&gt; ;
+                &lt;isRelationshipFrom&gt; ?enslaved ;
+                &lt;isRelationshipTo&gt; ?enslaver ;
+                &lt;hasInterAgentRelationshipType&gt; "Enslavement" .
+  ?enslaved &lt;hasName&gt; ?enslavedName .
+  ?enslaver &lt;hasName&gt; ?enslaverName .
+  OPTIONAL {
+    ?enslaved &lt;hasAgentRecord&gt; ?enslavedRecord .
+    ?enslavedRecord &lt;recordedAt&gt; ?event .
+    ?event &lt;hasName&gt; ?location .
+  }
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "0634d9e8526f4fc789626d87a503ae2f",
+    "id": "4b9ee1157de74abfb5a853167266181e",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 841,
-        "completion_tokens": 289,
-        "total_tokens": 1130
+        "prompt_tokens": 835,
+        "completion_tokens": 313,
+        "total_tokens": 1148
     },
-    "created": 1747163354,
+    "created": 1752719875,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslaved ?enslaverName ?location\nWHERE {\n  ?enslaved rdf:type Agent .\n  ?enslaved hasInterAgentRelationshipRecord ?relationship .\n  ?relationship hasInterAgentRelationshipType \"enslaved\" .\n  ?relationship isRelationshipTo ?enslaver .\n  ?enslaver hasNameRecord ?nameRecord .\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?enslaverName .\n  ?relationship recordedAt ?event .\n  ?event rdfs:label ?location .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslaved ?enslaver ?location\nWHERE {\n  ?relationship rdf:type &lt;InterAgentRelationshipRecord&gt; ;\n                &lt;isRelationshipFrom&gt; ?enslaved ;\n                &lt;isRelationshipTo&gt; ?enslaver ;\n                &lt;hasInterAgentRelationshipType&gt; \"Enslavement\" .\n\n  ?enslaved &lt;hasName&gt; ?enslavedName .\n  ?enslaver &lt;hasName&gt; ?enslaverName .\n\n  OPTIONAL {\n    ?enslaved &lt;hasAgentRecord&gt; ?enslavedRecord .\n    ?enslavedRecord &lt;recordedAt&gt; ?event .\n    ?event &lt;hasName&gt; ?location .\n  }\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -755,45 +777,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -803,34 +829,36 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?child WHERE {
-  ?enslavedAgent rdf:type Agent ;
-                 hasParticipantRoleRecord ?participantRoleRecord .
-  ?participantRoleRecord hasParticipantRoleType "Enslaved" ;
-                         roleProvidedBy ?event .
-  ?event providesParticipantRole ?participantRoleRecord2 .
-  ?participantRoleRecord2 hasParticipantRoleType "Child" ;
-                          isDirectlyBasedOn ?child .
+SELECT ?child
+WHERE {
+  ?enslavedAgent rdf:type Agent .
+  ?enslavedAgentRecord rdf:type AgentRecord .
+  ?enslavedAgent hasAgentRecord ?enslavedAgentRecord .
+  ?enslavedAgentRecord hasName ?enslavedName .
+  ?relationshipRecord rdf:type InterAgentRelationshipRecord .
+  ?relationshipRecord isRelationshipFrom ?enslavedAgent .
+  ?relationshipRecord isRelationshipTo ?child .
+  ?relationshipRecord hasInterAgentRelationshipType "Child" .
   ?child rdf:type Agent .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "653aae412e9f467e9987e886de11f9c1",
+    "id": "ab30d436b7cb4602b97fe37e215b116b",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 835,
-        "completion_tokens": 270,
-        "total_tokens": 1105
+        "prompt_tokens": 829,
+        "completion_tokens": 289,
+        "total_tokens": 1118
     },
-    "created": 1747163368,
+    "created": 1752719882,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?child WHERE {\n  ?enslavedAgent rdf:type Agent ;\n                 hasParticipantRoleRecord ?participantRoleRecord .\n  ?participantRoleRecord hasParticipantRoleType \"Enslaved\" ;\n                         roleProvidedBy ?event .\n  ?event providesParticipantRole ?participantRoleRecord2 .\n  ?participantRoleRecord2 hasParticipantRoleType \"Child\" ;\n                          isDirectlyBasedOn ?child .\n  ?child rdf:type Agent .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?child\nWHERE {\n  ?enslavedAgent rdf:type Agent .\n  ?enslavedAgentRecord rdf:type AgentRecord .\n  ?enslavedAgent hasAgentRecord ?enslavedAgentRecord .\n  ?enslavedAgentRecord hasName ?enslavedName .\n  ?relationshipRecord rdf:type InterAgentRelationshipRecord .\n  ?relationshipRecord isRelationshipFrom ?enslavedAgent .\n  ?relationshipRecord isRelationshipTo ?child .\n  ?relationshipRecord hasInterAgentRelationshipType \"Child\" .\n  ?child rdf:type Agent .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -855,45 +883,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -903,57 +935,38 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?agent ?name ?surname ?firstname ?sex ?occupation ?age ?role ?location ?startTime ?endTime
+SELECT ?agent ?agentName ?record ?event ?eventName ?eventDate ?location
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasNameRecord ?nameRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?name .
-  OPTIONAL { ?nameVariant hasSurnameAsString ?surname }
-  OPTIONAL { ?nameVariant hasFirstnameAsString ?firstname }
-  OPTIONAL {
-    ?agent hasSexRecord ?sexRecord .
-    ?sexRecord hasValue ?sex .
-  }
-  OPTIONAL {
-    ?agent hasOccupationRecord ?occupationRecord .
-    ?occupationRecord hasValue ?occupation .
-  }
-  OPTIONAL {
-    ?agent hasAgeRecord ?ageRecord .
-    ?ageRecord hasAgeValue ?age .
-  }
-  OPTIONAL {
-    ?agent hasParticipantRoleRecord ?roleRecord .
-    ?roleRecord hasParticipantRoleType ?role .
-    ?roleRecord roleProvidedBy ?event .
-    ?event rdfs:label ?location .
-    OPTIONAL { ?roleRecord hasTemporalExtent ?temporalExtent }
-    OPTIONAL { ?temporalExtent time:hasBeginning ?beginning .
-                ?beginning time:inXSDDate ?startTime }
-    OPTIONAL { ?temporalExtent time:hasEnd ?end .
-                ?end time:inXSDDate ?endTime }
-  }
-  FILTER (?role = "enslaved" || ?role = "formerlyEnslaved")
+  ?agent rdf:type :Agent .
+  ?agent :hasName ?agentName .
+  ?agent :hasAgentRecord ?record .
+  ?record :recordedAt ?event .
+  ?event :hasName ?eventName .
+  ?event :hasTemporalExtent ?temporalExtent .
+  ?temporalExtent :contains ?eventDate .
+  ?event :providesParticipantRole ?roleRecord .
+  ?roleRecord :hasParticipantRoleType "enslaved"|"formerly_enslaved" .
+  ?event :hasExternalReference ?externalRef .
+  ?externalRef :refersTo ?location .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "e7541761b6e34d53b66f94349860870e",
+    "id": "d547cf0fff1e48bd99b0a4fc29f9d172",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 847,
-        "completion_tokens": 546,
-        "total_tokens": 1393
+        "prompt_tokens": 841,
+        "completion_tokens": 325,
+        "total_tokens": 1166
     },
-    "created": 1747163380,
+    "created": 1752719921,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?agent ?name ?surname ?firstname ?sex ?occupation ?age ?role ?location ?startTime ?endTime\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasNameRecord ?nameRecord .\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?name .\n  OPTIONAL { ?nameVariant hasSurnameAsString ?surname }\n  OPTIONAL { ?nameVariant hasFirstnameAsString ?firstname }\n  OPTIONAL {\n    ?agent hasSexRecord ?sexRecord .\n    ?sexRecord hasValue ?sex .\n  }\n  OPTIONAL {\n    ?agent hasOccupationRecord ?occupationRecord .\n    ?occupationRecord hasValue ?occupation .\n  }\n  OPTIONAL {\n    ?agent hasAgeRecord ?ageRecord .\n    ?ageRecord hasAgeValue ?age .\n  }\n  OPTIONAL {\n    ?agent hasParticipantRoleRecord ?roleRecord .\n    ?roleRecord hasParticipantRoleType ?role .\n    ?roleRecord roleProvidedBy ?event .\n    ?event rdfs:label ?location .\n    OPTIONAL { ?roleRecord hasTemporalExtent ?temporalExtent }\n    OPTIONAL { ?temporalExtent time:hasBeginning ?beginning .\n                ?beginning time:inXSDDate ?startTime }\n    OPTIONAL { ?temporalExtent time:hasEnd ?end .\n                ?end time:inXSDDate ?endTime }\n  }\n  FILTER (?role = \"enslaved\" || ?role = \"formerlyEnslaved\")\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?agent ?agentName ?record ?event ?eventName ?eventDate ?location\nWHERE {\n  ?agent rdf:type :Agent .\n  ?agent :hasName ?agentName .\n  ?agent :hasAgentRecord ?record .\n  ?record :recordedAt ?event .\n  ?event :hasName ?eventName .\n  ?event :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent :contains ?eventDate .\n  ?event :providesParticipantRole ?roleRecord .\n  ?roleRecord :hasParticipantRoleType \"enslaved\"|\"formerly_enslaved\" .\n  ?event :hasExternalReference ?externalRef .\n  ?externalRef :refersTo ?location .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -978,45 +991,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -1025,37 +1042,42 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?agent ?name ?location ?timePeriod
+SELECT ?agent ?name ?event ?eventName ?date ?location
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasAgeRecord ?ageRecord .
-  ?ageRecord hasValue "child" .
-  ?agent hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord hasParticipantRoleType "enslaved" .
-  ?roleRecord roleProvidedBy ?event .
-  ?event recordedAt ?location .
-  ?event hasTemporalExtent ?timePeriod .
-  ?agent hasNameRecord ?nameRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?name .
+  ?agentRecord rdf:type :AgeRecord ;
+               :hasAgeValue ?ageValue ;
+               :hasValue :AgeCategory.txt ;
+               :hasTemporalExtent ?temporalExtent ;
+               :recordedAt ?event ;
+               :temporalExtentContains ?date .
+  ?temporalExtent time:startsAt ?startDate ;
+                  time:endsAt ?endDate .
+  ?event :hasName ?eventName ;
+         :hasEventType :EventTypes.txt ;
+         :hasExternalReference ?externalReference .
+  ?externalReference :refersTo ?location ;
+                     :withID ?locationID .
+  ?agent :hasAgentRecord ?agentRecord ;
+         :hasName ?name .
+  FILTER (?ageValue &lt; 18)
 }</t>
   </si>
   <si>
     <t>{
-    "id": "9f4ae38d94424ce49491627cb0f9d00c",
+    "id": "9f9d6284d9ae4f348aee74414cc183c5",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 839,
-        "completion_tokens": 294,
-        "total_tokens": 1133
+        "prompt_tokens": 833,
+        "completion_tokens": 358,
+        "total_tokens": 1191
     },
-    "created": 1747163395,
+    "created": 1752719926,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?agent ?name ?location ?timePeriod\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasAgeRecord ?ageRecord .\n  ?ageRecord hasValue \"child\" .\n  ?agent hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord hasParticipantRoleType \"enslaved\" .\n  ?roleRecord roleProvidedBy ?event .\n  ?event recordedAt ?location .\n  ?event hasTemporalExtent ?timePeriod .\n  ?agent hasNameRecord ?nameRecord .\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?name .\n}",
+                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?agent ?name ?event ?eventName ?date ?location\nWHERE {\n  ?agentRecord rdf:type :AgeRecord ;\n               :hasAgeValue ?ageValue ;\n               :hasValue :AgeCategory.txt ;\n               :hasTemporalExtent ?temporalExtent ;\n               :recordedAt ?event ;\n               :temporalExtentContains ?date .\n\n  ?temporalExtent time:startsAt ?startDate ;\n                  time:endsAt ?endDate .\n\n  ?event :hasName ?eventName ;\n         :hasEventType :EventTypes.txt ;\n         :hasExternalReference ?externalReference .\n\n  ?externalReference :refersTo ?location ;\n                     :withID ?locationID .\n\n  ?agent :hasAgentRecord ?agentRecord ;\n         :hasName ?name .\n\n  FILTER (?ageValue &lt; 18)\n}",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1080,45 +1102,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -1128,49 +1154,46 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedAgent ?enslavedAgentName (COUNT(?enslavedAgent) AS ?totalEnslaved)
+SELECT ?enslavedPerson ?enslavedPersonName (COUNT(?enslavedPerson) AS ?enslavedCount)
 WHERE {
-  ?ownerAgent rdf:type Agent .
-  ?ownerAgent hasNameRecord ?ownerNameRecord .
-  ?ownerNameRecord hasPreferredNameVariant ?ownerNameVariant .
-  ?ownerNameVariant fullNameAsString "specific_owner_name" .
-  ?enslavedAgent rdf:type Agent .
-  ?enslavedAgent hasNameRecord ?enslavedNameRecord .
-  ?enslavedNameRecord hasPreferredNameVariant ?enslavedNameVariant .
-  ?enslavedNameVariant fullNameAsString ?enslavedAgentName .
-  ?relationshipRecord rdf:type InterAgentRelationshipRecord .
-  ?relationshipRecord isRelationshipFrom ?ownerAgent .
-  ?relationshipRecord isRelationshipTo ?enslavedAgent .
-  ?relationshipRecord hasInterAgentRelationshipType "enslavement_relationship_type" .
+  ?owner rdf:type Agent .
+  ?owner hasName "SpecificOwnerName" .
+  ?ownerRecord rdf:type AgentRecord .
+  ?ownerRecord hasAgent ?owner .
   ?event rdf:type Event .
-  ?event providesParticipantRole ?participantRoleRecord .
-  ?participantRoleRecord roleProvidedBy ?event .
-  ?participantRoleRecord hasParticipantRoleType "specific_role_type" .
-  ?participantRoleRecord hasTemporalExtent ?temporalExtent .
-  ?temporalExtent time:hasBeginning ?beginning .
-  ?beginning time:inXSDDate "specific_date" .
-  ?event recordedAt ?place .
-  ?place rdfs:label "specific_place" .
+  ?event hasName "SpecificEventName" .
+  ?event hasTemporalExtent ?temporalExtent .
+  ?temporalExtent time:startsAt "SpecificStartDate"^^xsd:date .
+  ?temporalExtent time:endsAt "SpecificEndDate"^^xsd:date .
+  ?event providesParticipantRole ?roleRecord .
+  ?roleRecord rdf:type ParticipantRoleRecord .
+  ?roleRecord roleProvidedBy ?event .
+  ?roleRecord hasParticipantRoleType "Enslaved" .
+  ?enslavedRecord rdf:type AgentRecord .
+  ?enslavedRecord hasAgent ?enslavedPerson .
+  ?enslavedPerson hasName ?enslavedPersonName .
+  ?roleRecord hasAgent ?enslavedPerson .
+  ?event recordedAt ?enslavedRecord .
 }
-GROUP BY ?enslavedAgent ?enslavedAgentName
+GROUP BY ?enslavedPerson ?enslavedPersonName
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "441e117dac134f11b0518210436ebb19",
+    "id": "584ef840e6a644c3a16a418e1776761b",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 849,
-        "completion_tokens": 539,
-        "total_tokens": 1388
+        "prompt_tokens": 843,
+        "completion_tokens": 456,
+        "total_tokens": 1299
     },
-    "created": 1747163409,
+    "created": 1752719933,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedAgent ?enslavedAgentName (COUNT(?enslavedAgent) AS ?totalEnslaved)\nWHERE {\n  ?ownerAgent rdf:type Agent .\n  ?ownerAgent hasNameRecord ?ownerNameRecord .\n  ?ownerNameRecord hasPreferredNameVariant ?ownerNameVariant .\n  ?ownerNameVariant fullNameAsString \"specific_owner_name\" .\n\n  ?enslavedAgent rdf:type Agent .\n  ?enslavedAgent hasNameRecord ?enslavedNameRecord .\n  ?enslavedNameRecord hasPreferredNameVariant ?enslavedNameVariant .\n  ?enslavedNameVariant fullNameAsString ?enslavedAgentName .\n\n  ?relationshipRecord rdf:type InterAgentRelationshipRecord .\n  ?relationshipRecord isRelationshipFrom ?ownerAgent .\n  ?relationshipRecord isRelationshipTo ?enslavedAgent .\n  ?relationshipRecord hasInterAgentRelationshipType \"enslavement_relationship_type\" .\n\n  ?event rdf:type Event .\n  ?event providesParticipantRole ?participantRoleRecord .\n  ?participantRoleRecord roleProvidedBy ?event .\n  ?participantRoleRecord hasParticipantRoleType \"specific_role_type\" .\n  ?participantRoleRecord hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:hasBeginning ?beginning .\n  ?beginning time:inXSDDate \"specific_date\" .\n\n  ?event recordedAt ?place .\n  ?place rdfs:label \"specific_place\" .\n}\nGROUP BY ?enslavedAgent ?enslavedAgentName\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedPerson ?enslavedPersonName (COUNT(?enslavedPerson) AS ?enslavedCount)\nWHERE {\n  ?owner rdf:type Agent .\n  ?owner hasName \"SpecificOwnerName\" .\n  ?ownerRecord rdf:type AgentRecord .\n  ?ownerRecord hasAgent ?owner .\n  ?event rdf:type Event .\n  ?event hasName \"SpecificEventName\" .\n  ?event hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:startsAt \"SpecificStartDate\"^^xsd:date .\n  ?temporalExtent time:endsAt \"SpecificEndDate\"^^xsd:date .\n  ?event providesParticipantRole ?roleRecord .\n  ?roleRecord rdf:type ParticipantRoleRecord .\n  ?roleRecord roleProvidedBy ?event .\n  ?roleRecord hasParticipantRoleType \"Enslaved\" .\n  ?enslavedRecord rdf:type AgentRecord .\n  ?enslavedRecord hasAgent ?enslavedPerson .\n  ?enslavedPerson hasName ?enslavedPersonName .\n  ?roleRecord hasAgent ?enslavedPerson .\n  ?event recordedAt ?enslavedRecord .\n}\nGROUP BY ?enslavedPerson ?enslavedPersonName\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1195,45 +1218,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -1243,32 +1270,34 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedAgent ?roleType ?event
+SELECT ?enslavedIndividual ?role
 WHERE {
-  ?enslavedAgent rdf:type Agent ;
-                 hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord hasParticipantRoleType ?roleType ;
-             roleProvidedBy ?event .
-  ?event rdfs:label "state capitol construction" .
+  ?enslavedIndividual rdf:type :Agent .
+  ?enslavedIndividual :hasName ?name .
+  ?enslavedIndividual :hasAgentRecord ?agentRecord .
+  ?agentRecord :recordedAt ?event .
+  ?event :hasName "state capitol" .
+  ?event :providesParticipantRole ?roleRecord .
+  ?roleRecord :hasParticipantRoleType ?role .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "a5fe5a7018a94305b834709d55727292",
+    "id": "297deea9d68045a4b002d19f9cdda140",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 851,
-        "completion_tokens": 230,
-        "total_tokens": 1081
+        "prompt_tokens": 845,
+        "completion_tokens": 267,
+        "total_tokens": 1112
     },
-    "created": 1747163425,
+    "created": 1752719941,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedAgent ?roleType ?event\nWHERE {\n  ?enslavedAgent rdf:type Agent ;\n                 hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord hasParticipantRoleType ?roleType ;\n             roleProvidedBy ?event .\n  ?event rdfs:label \"state capitol construction\" .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedIndividual ?role\nWHERE {\n  ?enslavedIndividual rdf:type :Agent .\n  ?enslavedIndividual :hasName ?name .\n  ?enslavedIndividual :hasAgentRecord ?agentRecord .\n  ?agentRecord :recordedAt ?event .\n  ?event :hasName \"state capitol\" .\n  ?event :providesParticipantRole ?roleRecord .\n  ?roleRecord :hasParticipantRoleType ?role .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1293,87 +1322,87 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>```sparql
-PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT DISTINCT ?address ?property
+SELECT ?address ?property
 WHERE {
   ?agent rdf:type Agent .
-  ?agent hasInterAgentRelationshipRecord ?relationship .
-  ?relationship hasInterAgentRelationshipType "enslaved" .
-  ?relationship isRelationshipTo ?enslavedAgent .
-  ?enslavedAgent hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord hasParticipantRoleType "inhabitant" .
-  ?roleRecord roleProvidedBy ?event .
-  ?event rdfs:label ?address .
-  ?event providesParticipantRole ?propertyRecord .
-  ?propertyRecord hasParticipantRoleType "property" .
-  ?propertyRecord roleProvidedBy ?propertyEvent .
-  ?propertyEvent rdfs:label ?property .
-}
-```</t>
+  ?agent hasAgentRecord ?agentRecord .
+  ?agentRecord providesParticipantRole ?role .
+  ?role hasParticipantRoleType "enslaved" .
+  ?agentRecord hasExternalReference ?reference .
+  ?reference refersTo ?addressOrProperty .
+  ?addressOrProperty rdfs:label ?addressOrPropertyName .
+  FILTER(CONTAINS(LCASE(?addressOrPropertyName), "address") || CONTAINS(LCASE(?addressOrPropertyName), "property"))
+  BIND(IF(CONTAINS(LCASE(?addressOrPropertyName), "address"), ?addressOrProperty, ?address) AS ?address)
+  BIND(IF(CONTAINS(LCASE(?addressOrPropertyName), "property"), ?addressOrProperty, ?property) AS ?property)
+}</t>
   </si>
   <si>
     <t>{
-    "id": "dd85d7ddc2184f5b9bc91db3928a2a8a",
+    "id": "801b1cb141ce41ef9ed93ec39ef06d5c",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 841,
-        "completion_tokens": 332,
-        "total_tokens": 1173
+        "prompt_tokens": 835,
+        "completion_tokens": 351,
+        "total_tokens": 1186
     },
-    "created": 1747163437,
+    "created": 1752720189,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT DISTINCT ?address ?property\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasInterAgentRelationshipRecord ?relationship .\n  ?relationship hasInterAgentRelationshipType \"enslaved\" .\n  ?relationship isRelationshipTo ?enslavedAgent .\n  ?enslavedAgent hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord hasParticipantRoleType \"inhabitant\" .\n  ?roleRecord roleProvidedBy ?event .\n  ?event rdfs:label ?address .\n  ?event providesParticipantRole ?propertyRecord .\n  ?propertyRecord hasParticipantRoleType \"property\" .\n  ?propertyRecord roleProvidedBy ?propertyEvent .\n  ?propertyEvent rdfs:label ?property .\n}\n```",
+                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?address ?property\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasAgentRecord ?agentRecord .\n  ?agentRecord providesParticipantRole ?role .\n  ?role hasParticipantRoleType \"enslaved\" .\n  ?agentRecord hasExternalReference ?reference .\n  ?reference refersTo ?addressOrProperty .\n  ?addressOrProperty rdfs:label ?addressOrPropertyName .\n  FILTER(CONTAINS(LCASE(?addressOrPropertyName), \"address\") || CONTAINS(LCASE(?addressOrPropertyName), \"property\"))\n  BIND(IF(CONTAINS(LCASE(?addressOrPropertyName), \"address\"), ?addressOrProperty, ?address) AS ?address)\n  BIND(IF(CONTAINS(LCASE(?addressOrPropertyName), \"property\"), ?addressOrProperty, ?property) AS ?property)\n}",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1398,92 +1427,94 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+    <t>```sparql
 PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedIndividual ?name ?sex ?age ?occupation ?port ?time
+SELECT ?enslavedIndividual ?name ?port ?date ?age ?sex
 WHERE {
-  ?enslavedIndividual rdf:type :Agent ;
-                      :hasNameRecord ?nameRecord ;
-                      :hasSexRecord ?sexRecord ;
-                      :hasAgeRecord ?ageRecord ;
-                      :hasOccupationRecord ?occupationRecord ;
-                      :hasParticipantRoleRecord ?roleRecord .
-  ?nameRecord :hasPreferredNameVariant ?nameVariant .
-  ?nameVariant :fullNameAsString ?name .
-  ?sexRecord :hasValue ?sex .
-  ?ageRecord :hasAgeValue ?age .
-  ?occupationRecord :hasValue ?occupation .
-  ?roleRecord :roleProvidedBy ?event ;
-               :hasParticipantRoleType :Enslaved .
-  ?event :providesParticipantRole ?roleRecord ;
-         :recordedAt ?portEvent .
-  ?portEvent :hasValue ?port ;
-             :hasTemporalExtent ?timeExtent .
-  ?timeExtent time:hasBeginning ?beginning .
-  ?beginning time:inXSDDateTime ?time .
-}</t>
+  ?enslavedIndividual rdf:type Agent .
+  ?enslavedIndividual hasAgentRecord ?agentRecord .
+  ?agentRecord hasName ?name .
+  ?agentRecord recordedAt ?event .
+  ?event hasName ?port .
+  ?agentRecord temporalExtentContains ?date .
+  OPTIONAL {
+    ?agentRecord rdf:type AgeRecord .
+    ?agentRecord hasAgeValue ?age .
+  }
+  OPTIONAL {
+    ?agentRecord rdf:type SexRecord .
+    ?agentRecord hasValue ?sex .
+  }
+}
+ORDER BY ?date
+```</t>
   </si>
   <si>
     <t>{
-    "id": "0b88ed8e48c14ac6a144a3cf50378cd8",
+    "id": "2662e8fb1e24435d9c0494e84b2544cb",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 845,
-        "completion_tokens": 427,
-        "total_tokens": 1272
+        "prompt_tokens": 839,
+        "completion_tokens": 313,
+        "total_tokens": 1152
     },
-    "created": 1747163451,
+    "created": 1752720195,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedIndividual ?name ?sex ?age ?occupation ?port ?time\nWHERE {\n  ?enslavedIndividual rdf:type :Agent ;\n                      :hasNameRecord ?nameRecord ;\n                      :hasSexRecord ?sexRecord ;\n                      :hasAgeRecord ?ageRecord ;\n                      :hasOccupationRecord ?occupationRecord ;\n                      :hasParticipantRoleRecord ?roleRecord .\n\n  ?nameRecord :hasPreferredNameVariant ?nameVariant .\n  ?nameVariant :fullNameAsString ?name .\n\n  ?sexRecord :hasValue ?sex .\n\n  ?ageRecord :hasAgeValue ?age .\n\n  ?occupationRecord :hasValue ?occupation .\n\n  ?roleRecord :roleProvidedBy ?event ;\n               :hasParticipantRoleType :Enslaved .\n\n  ?event :providesParticipantRole ?roleRecord ;\n         :recordedAt ?portEvent .\n\n  ?portEvent :hasValue ?port ;\n             :hasTemporalExtent ?timeExtent .\n\n  ?timeExtent time:hasBeginning ?beginning .\n  ?beginning time:inXSDDateTime ?time .\n}",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedIndividual ?name ?port ?date ?age ?sex\nWHERE {\n  ?enslavedIndividual rdf:type Agent .\n  ?enslavedIndividual hasAgentRecord ?agentRecord .\n  ?agentRecord hasName ?name .\n  ?agentRecord recordedAt ?event .\n  ?event hasName ?port .\n  ?agentRecord temporalExtentContains ?date .\n  OPTIONAL {\n    ?agentRecord rdf:type AgeRecord .\n    ?agentRecord hasAgeValue ?age .\n  }\n  OPTIONAL {\n    ?agentRecord rdf:type SexRecord .\n    ?agentRecord hasValue ?sex .\n  }\n}\nORDER BY ?date\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1508,45 +1539,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -1556,37 +1591,39 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?rebellion ?participantName ?location ?date
-WHERE {
-  ?rebellion rdf:type Event ;
-             rdfs:label ?rebellionLabel ;
-             recordedAt ?location ;
-             hasTemporalExtent ?date .
-  ?participantRole RecordedAt ?rebellion ;
-                   hasParticipantRoleType "Slave" ;
-                   isDirectlyBasedOn ?participant .
-  ?participant hasNameRecord ?nameRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?participantName .
+SELECT ?rebellion ?participant ?location ?date WHERE {
+  ?rebellion rdf:type ?eventType .
+  ?eventType rdfs:subClassOf Event .
+  ?rebellion rdfs:label "slave rebellion" .
+  ?rebellion hasName ?rebellionName .
+  ?rebellion hasTemporalExtent ?temporalExtent .
+  ?temporalExtent time:startsAt ?date .
+  ?rebellion providesParticipantRole ?participantRoleRecord .
+  ?participantRoleRecord roleProvidedBy ?rebellion .
+  ?participantRoleRecord hasParticipantRoleType ?participantRoleType .
+  ?participantRoleRecord hasAgentRecord ?agentRecord .
+  ?agentRecord hasName ?participant .
+  ?rebellion hasExternalReference ?externalReference .
+  ?externalReference refersTo ?location .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "5d7fb2fc2d7945c9ab1e7afa75444a69",
+    "id": "7cbf023c558b497dbbf4511e76391a63",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 840,
-        "completion_tokens": 295,
-        "total_tokens": 1135
+        "prompt_tokens": 834,
+        "completion_tokens": 365,
+        "total_tokens": 1199
     },
-    "created": 1747163468,
+    "created": 1752720212,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?rebellion ?participantName ?location ?date\nWHERE {\n  ?rebellion rdf:type Event ;\n             rdfs:label ?rebellionLabel ;\n             recordedAt ?location ;\n             hasTemporalExtent ?date .\n  ?participantRole RecordedAt ?rebellion ;\n                   hasParticipantRoleType \"Slave\" ;\n                   isDirectlyBasedOn ?participant .\n  ?participant hasNameRecord ?nameRecord .\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?participantName .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?rebellion ?participant ?location ?date WHERE {\n  ?rebellion rdf:type ?eventType .\n  ?eventType rdfs:subClassOf Event .\n  ?rebellion rdfs:label \"slave rebellion\" .\n  ?rebellion hasName ?rebellionName .\n  ?rebellion hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:startsAt ?date .\n  ?rebellion providesParticipantRole ?participantRoleRecord .\n  ?participantRoleRecord roleProvidedBy ?rebellion .\n  ?participantRoleRecord hasParticipantRoleType ?participantRoleType .\n  ?participantRoleRecord hasAgentRecord ?agentRecord .\n  ?agentRecord hasName ?participant .\n  ?rebellion hasExternalReference ?externalReference .\n  ?externalReference refersTo ?location .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1611,45 +1648,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -1659,41 +1700,38 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedAgent ?relativeAgent ?relationshipType ?location
+SELECT ?enslavedAgent ?relative ?relationshipType ?location
 WHERE {
-  ?enslavedAgent rdf:type Agent ;
-                 hasParticipantRoleRecord ?participantRoleRecord .
-  ?participantRoleRecord hasParticipantRoleType "enslaved" ;
-                         roleProvidedBy ?enslavementEvent .
-  ?enslavementEvent providesParticipantRole ?participantRoleRecord ;
-                   time:hasTemporalExtent ?temporalExtent .
-  ?enslavedAgent hasInterAgentRelationshipRecord ?relationshipRecord .
-  ?relationshipRecord hasInterAgentRelationshipType ?relationshipType ;
-                      isRelationshipTo ?relativeAgent .
-  OPTIONAL {
-    ?relativeAgent hasNameRecord ?nameRecord .
-    ?nameRecord hasPreferredNameVariant ?nameVariant .
-    ?nameVariant fullNameAsString ?location .
-  }
+  ?enslavedAgent rdf:type :Agent ;
+                 :hasAgentRecord ?enslavedRecord .
+  ?enslavedRecord :recordedAt ?enslavementEvent .
+  ?enslavementEvent :hasEventType "Enslavement" .
+  ?relationRecord :isRelationshipFrom ?enslavedAgent ;
+                  :isRelationshipTo ?relative ;
+                  :hasInterAgentRelationshipType ?relationshipType .
+  ?relative :hasAgentRecord ?relativeRecord .
+  ?relativeRecord :recordedAt ?event .
+  ?event :hasTemporalExtent ?temporalExtent .
+  ?temporalExtent :contains ?location .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "843ea48f61314773b144d925d961aa48",
+    "id": "cdb5c37631bc44358f934256a3add3b1",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 841,
-        "completion_tokens": 364,
-        "total_tokens": 1205
+        "prompt_tokens": 835,
+        "completion_tokens": 329,
+        "total_tokens": 1164
     },
-    "created": 1747163481,
+    "created": 1752720293,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedAgent ?relativeAgent ?relationshipType ?location\nWHERE {\n  ?enslavedAgent rdf:type Agent ;\n                 hasParticipantRoleRecord ?participantRoleRecord .\n  ?participantRoleRecord hasParticipantRoleType \"enslaved\" ;\n                         roleProvidedBy ?enslavementEvent .\n  ?enslavementEvent providesParticipantRole ?participantRoleRecord ;\n                   time:hasTemporalExtent ?temporalExtent .\n\n  ?enslavedAgent hasInterAgentRelationshipRecord ?relationshipRecord .\n  ?relationshipRecord hasInterAgentRelationshipType ?relationshipType ;\n                      isRelationshipTo ?relativeAgent .\n\n  OPTIONAL {\n    ?relativeAgent hasNameRecord ?nameRecord .\n    ?nameRecord hasPreferredNameVariant ?nameVariant .\n    ?nameVariant fullNameAsString ?location .\n  }\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedAgent ?relative ?relationshipType ?location\nWHERE {\n  ?enslavedAgent rdf:type :Agent ;\n                 :hasAgentRecord ?enslavedRecord .\n  ?enslavedRecord :recordedAt ?enslavementEvent .\n  ?enslavementEvent :hasEventType \"Enslavement\" .\n\n  ?relationRecord :isRelationshipFrom ?enslavedAgent ;\n                  :isRelationshipTo ?relative ;\n                  :hasInterAgentRelationshipType ?relationshipType .\n\n  ?relative :hasAgentRecord ?relativeRecord .\n  ?relativeRecord :recordedAt ?event .\n  ?event :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent :contains ?location .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1718,86 +1756,91 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>```sparql
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
 SELECT ?medianAge
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasAgeRecord ?ageRecord .
-  ?ageRecord hasAgeValue ?medianAge .
-  ?agent hasParticipantRoleRecord ?participantRoleRecord .
-  ?participantRoleRecord roleProvidedBy ?event .
-  ?event rdfs:label "escape" .
-  ?event time:hasTime ?time .
-  ?time time:inXSDDateTime "time period X" .
-  ?event time:hasBeginning ?beginning .
-  ?beginning time:inXSDDateTime "start date" .
-  ?event time:hasEnd ?end .
-  ?end time:inXSDDateTime "end date" .
-  ?event rdfs:comment "location X" .
-}</t>
+  ?agent rdf:type :Agent .
+  ?agent :hasAgentRecord ?agentRecord .
+  ?agentRecord rdf:type :AgeRecord .
+  ?agentRecord :hasAgeValue ?medianAge .
+  ?agentRecord :recordedAt ?event .
+  ?event :hasEventType "Escape" .
+  ?event :hasTemporalExtent ?temporalExtent .
+  ?temporalExtent :fallsWithin ?timespan .
+  ?timespan time:hasBeginning ?startDate .
+  ?timespan time:hasEnd ?endDate .
+  ?event :hasName "Location X" .
+  FILTER (?startDate &gt;= "START_DATE"^^xsd:date &amp;&amp; ?endDate &lt;= "END_DATE"^^xsd:date)
+}
+```</t>
   </si>
   <si>
     <t>{
-    "id": "3396dd74b5104aecb6d5bfbaa278b0c0",
+    "id": "cbc70111a3a84b7a8abf3f1b4fb8d495",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 844,
-        "completion_tokens": 332,
-        "total_tokens": 1176
+        "prompt_tokens": 838,
+        "completion_tokens": 347,
+        "total_tokens": 1185
     },
-    "created": 1747163509,
+    "created": 1752720297,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?medianAge\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasAgeRecord ?ageRecord .\n  ?ageRecord hasAgeValue ?medianAge .\n  ?agent hasParticipantRoleRecord ?participantRoleRecord .\n  ?participantRoleRecord roleProvidedBy ?event .\n  ?event rdfs:label \"escape\" .\n  ?event time:hasTime ?time .\n  ?time time:inXSDDateTime \"time period X\" .\n  ?event time:hasBeginning ?beginning .\n  ?beginning time:inXSDDateTime \"start date\" .\n  ?event time:hasEnd ?end .\n  ?end time:inXSDDateTime \"end date\" .\n  ?event rdfs:comment \"location X\" .\n}",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?medianAge\nWHERE {\n  ?agent rdf:type :Agent .\n  ?agent :hasAgentRecord ?agentRecord .\n  ?agentRecord rdf:type :AgeRecord .\n  ?agentRecord :hasAgeValue ?medianAge .\n  ?agentRecord :recordedAt ?event .\n  ?event :hasEventType \"Escape\" .\n  ?event :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent :fallsWithin ?timespan .\n  ?timespan time:hasBeginning ?startDate .\n  ?timespan time:hasEnd ?endDate .\n  ?event :hasName \"Location X\" .\n  FILTER (?startDate &gt;= \"START_DATE\"^^xsd:date &amp;&amp; ?endDate &lt;= \"END_DATE\"^^xsd:date)\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1822,80 +1865,85 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>```sparql
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
 SELECT (AVG(?ageValue) AS ?averageAgeAtDeath)
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasParticipantRoleRecord ?participantRoleRecord .
-  ?participantRoleRecord hasParticipantRoleType "Enslaved" .
-  ?agent hasAgeRecord ?ageRecord .
-  ?ageRecord hasAgeValue ?ageValue .
-  ?agent hasInterAgentRelationshipRecord ?relationshipRecord .
-  ?relationshipRecord hasInterAgentRelationshipType "Death" .
-}</t>
+  ?agent rdf:type :Agent .
+  ?agent :hasAgentRecord ?agentRecord .
+  ?agentRecord rdf:type :AgeRecord .
+  ?agentRecord :hasAgeValue ?ageValue .
+  ?agentRecord :recordedAt ?event .
+  ?event :hasEventType "Death" .
+}
+```</t>
   </si>
   <si>
     <t>{
-    "id": "a970575b3b194fc09812af95ce716daa",
+    "id": "0656a8307ed1462fb3a20302fdea02b0",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 837,
-        "completion_tokens": 271,
-        "total_tokens": 1108
+        "prompt_tokens": 831,
+        "completion_tokens": 249,
+        "total_tokens": 1080
     },
-    "created": 1747163524,
+    "created": 1752720301,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT (AVG(?ageValue) AS ?averageAgeAtDeath)\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasParticipantRoleRecord ?participantRoleRecord .\n  ?participantRoleRecord hasParticipantRoleType \"Enslaved\" .\n  ?agent hasAgeRecord ?ageRecord .\n  ?ageRecord hasAgeValue ?ageValue .\n  ?agent hasInterAgentRelationshipRecord ?relationshipRecord .\n  ?relationshipRecord hasInterAgentRelationshipType \"Death\" .\n}",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT (AVG(?ageValue) AS ?averageAgeAtDeath)\nWHERE {\n  ?agent rdf:type :Agent .\n  ?agent :hasAgentRecord ?agentRecord .\n  ?agentRecord rdf:type :AgeRecord .\n  ?agentRecord :hasAgeValue ?ageValue .\n  ?agentRecord :recordedAt ?event .\n  ?event :hasEventType \"Death\" .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -1920,45 +1968,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -1968,35 +2020,41 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?ethnicGroup ?skillCategory (COUNT(?agent) AS ?count)
+SELECT ?ethnicGroup ?skillCategory (COUNT(?agent) AS ?count) ((COUNT(?agent) / ?total) * 100 AS ?percentage)
 WHERE {
-  ?agent rdf:type :Agent ;
-         :hasOccupationRecord ?occupationRecord ;
-         :hasNameRecord ?nameRecord .
-  ?occupationRecord :hasValue ?skillCategory .
-  ?nameRecord :hasPreferredNameVariant ?nameVariant .
-  ?nameVariant :hasSurnameAsString ?ethnicGroup .
+  ?agent rdf:type :Agent .
+  ?agent :hasAgentRecord ?agentRecord .
+  ?agentRecord :hasValue ?skillCategory .
+  ?agent :hasEthnicGroup ?ethnicGroup .
+  {
+    SELECT (COUNT(?agent) AS ?total)
+    WHERE {
+      ?agent rdf:type :Agent .
+      ?agent :hasAgentRecord ?agentRecord .
+      ?agentRecord :hasValue ?skillCategory .
+    }
+  }
 }
-GROUP BY ?ethnicGroup ?skillCategory
+GROUP BY ?ethnicGroup ?skillCategory ?total
 ORDER BY ?ethnicGroup ?skillCategory
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "9d77cb58dedc486986b2821c631e0c0d",
+    "id": "52182b15ad3042e8854480ba2e881dfa",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 848,
-        "completion_tokens": 271,
-        "total_tokens": 1119
+        "prompt_tokens": 842,
+        "completion_tokens": 326,
+        "total_tokens": 1168
     },
-    "created": 1747163536,
+    "created": 1752720330,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?ethnicGroup ?skillCategory (COUNT(?agent) AS ?count)\nWHERE {\n  ?agent rdf:type :Agent ;\n         :hasOccupationRecord ?occupationRecord ;\n         :hasNameRecord ?nameRecord .\n  ?occupationRecord :hasValue ?skillCategory .\n  ?nameRecord :hasPreferredNameVariant ?nameVariant .\n  ?nameVariant :hasSurnameAsString ?ethnicGroup .\n}\nGROUP BY ?ethnicGroup ?skillCategory\nORDER BY ?ethnicGroup ?skillCategory\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?ethnicGroup ?skillCategory (COUNT(?agent) AS ?count) ((COUNT(?agent) / ?total) * 100 AS ?percentage)\nWHERE {\n  ?agent rdf:type :Agent .\n  ?agent :hasAgentRecord ?agentRecord .\n  ?agentRecord :hasValue ?skillCategory .\n  ?agent :hasEthnicGroup ?ethnicGroup .\n  {\n    SELECT (COUNT(?agent) AS ?total)\n    WHERE {\n      ?agent rdf:type :Agent .\n      ?agent :hasAgentRecord ?agentRecord .\n      ?agentRecord :hasValue ?skillCategory .\n    }\n  }\n}\nGROUP BY ?ethnicGroup ?skillCategory ?total\nORDER BY ?ethnicGroup ?skillCategory\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -2021,45 +2079,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -2069,50 +2131,38 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?ethnicGroup1 ?ethnicGroup2 (COUNT(?marriageEvent) AS ?marriageCount) ((COUNT(?marriageEvent) / ?totalMarriages) * 100 AS ?percentage)
+PREFIX ex: &lt;http://example.org/&gt;
+SELECT ?event ?ethnicGroup1 ?ethnicGroup2 (COUNT(?event) AS ?eventCount)
 WHERE {
-  ?marriageEvent rdf:type Event ;
-                 providesParticipantRole ?role1 , ?role2 .
-  ?role1 roleProvidedBy ?marriageEvent ;
-         roleProvidedFor ?agent1 .
-  ?role2 roleProvidedBy ?marriageEvent ;
-         roleProvidedFor ?agent2 .
-  ?agent1 hasEthnicGroup ?ethnicGroup1 .
-  ?agent2 hasEthnicGroup ?ethnicGroup2 .
-  {
-    SELECT (COUNT(?marriageEvent) AS ?totalMarriages)
-    WHERE {
-      ?marriageEvent rdf:type Event ;
-                     providesParticipantRole ?role1 , ?role2 .
-      ?role1 roleProvidedBy ?marriageEvent ;
-             roleProvidedFor ?agent1 .
-      ?role2 roleProvidedBy ?marriageEvent ;
-             roleProvidedFor ?agent2 .
-      ?agent1 hasEthnicGroup ?ethnicGroup1 .
-      ?agent2 hasEthnicGroup ?ethnicGroup2 .
-    }
-  }
+  ?event rdf:type ex:Event ;
+         ex:hasEventType "Marriage" ;
+         ex:providesParticipantRole ?role1, ?role2 .
+  ?role1 ex:roleProvidedBy ?agent1 .
+  ?role2 ex:roleProvidedBy ?agent2 .
+  ?agent1 ex:hasName ?ethnicGroup1 .
+  ?agent2 ex:hasName ?ethnicGroup2 .
+  FILTER (?agent1 != ?agent2)
 }
-GROUP BY ?ethnicGroup1 ?ethnicGroup2
-ORDER BY DESC(?percentage)
+GROUP BY ?event ?ethnicGroup1 ?ethnicGroup2
+HAVING (COUNT(?event) &gt; 0)
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "a2f91cd39c0e4fc2a419d143bcb1ca55",
+    "id": "e2984ad8810b480ca71122723b22b000",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 851,
-        "completion_tokens": 479,
-        "total_tokens": 1330
+        "prompt_tokens": 845,
+        "completion_tokens": 337,
+        "total_tokens": 1182
     },
-    "created": 1747163549,
+    "created": 1752720340,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?ethnicGroup1 ?ethnicGroup2 (COUNT(?marriageEvent) AS ?marriageCount) ((COUNT(?marriageEvent) / ?totalMarriages) * 100 AS ?percentage)\nWHERE {\n  ?marriageEvent rdf:type Event ;\n                 providesParticipantRole ?role1 , ?role2 .\n\n  ?role1 roleProvidedBy ?marriageEvent ;\n         roleProvidedFor ?agent1 .\n\n  ?role2 roleProvidedBy ?marriageEvent ;\n         roleProvidedFor ?agent2 .\n\n  ?agent1 hasEthnicGroup ?ethnicGroup1 .\n  ?agent2 hasEthnicGroup ?ethnicGroup2 .\n\n  {\n    SELECT (COUNT(?marriageEvent) AS ?totalMarriages)\n    WHERE {\n      ?marriageEvent rdf:type Event ;\n                     providesParticipantRole ?role1 , ?role2 .\n\n      ?role1 roleProvidedBy ?marriageEvent ;\n             roleProvidedFor ?agent1 .\n\n      ?role2 roleProvidedBy ?marriageEvent ;\n             roleProvidedFor ?agent2 .\n\n      ?agent1 hasEthnicGroup ?ethnicGroup1 .\n      ?agent2 hasEthnicGroup ?ethnicGroup2 .\n    }\n  }\n}\nGROUP BY ?ethnicGroup1 ?ethnicGroup2\nORDER BY DESC(?percentage)\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\nPREFIX ex: &lt;http://example.org/&gt;\n\nSELECT ?event ?ethnicGroup1 ?ethnicGroup2 (COUNT(?event) AS ?eventCount)\nWHERE {\n  ?event rdf:type ex:Event ;\n         ex:hasEventType \"Marriage\" ;\n         ex:providesParticipantRole ?role1, ?role2 .\n\n  ?role1 ex:roleProvidedBy ?agent1 .\n  ?role2 ex:roleProvidedBy ?agent2 .\n\n  ?agent1 ex:hasName ?ethnicGroup1 .\n  ?agent2 ex:hasName ?ethnicGroup2 .\n\n  FILTER (?agent1 != ?agent2)\n}\nGROUP BY ?event ?ethnicGroup1 ?ethnicGroup2\nHAVING (COUNT(?event) &gt; 0)\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -2137,45 +2187,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -2187,37 +2241,32 @@
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
 SELECT ?ethnicity ?skills ?gender ?period ?economicValue
 WHERE {
-  ?agent rdf:type Agent .
-  ?agent hasEthnicityRecord ?ethnicityRecord .
-  ?ethnicityRecord hasValue ?ethnicity .
-  ?agent hasOccupationRecord ?occupationRecord .
-  ?occupationRecord hasValue ?skills .
-  ?agent hasSexRecord ?sexRecord .
-  ?sexRecord hasValue ?gender .
-  ?agent hasEconomicValueRecord ?economicValueRecord .
-  ?economicValueRecord hasValue ?economicValue .
-  ?economicValueRecord hasTemporalExtent ?temporalExtent .
-  ?temporalExtent time:hasBeginning ?beginning .
-  ?beginning time:inXSDDateTime ?period .
+  ?agentRecord rdf:type AgentRecord ;
+               hasTemporalExtent ?temporalExtent ;
+               hasEthnicity ?ethnicity ;
+               hasSkills ?skills ;
+               hasGender ?gender ;
+               hasEconomicValue ?economicValue .
+  ?temporalExtent time:fallsWithin ?period .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "cf8cab9acaa843398617454a11e4fa8f",
+    "id": "45ec843982884a65a584d4e6bd5410ce",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 850,
-        "completion_tokens": 339,
-        "total_tokens": 1189
+        "prompt_tokens": 844,
+        "completion_tokens": 255,
+        "total_tokens": 1099
     },
-    "created": 1747163564,
+    "created": 1752720343,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?ethnicity ?skills ?gender ?period ?economicValue\nWHERE {\n  ?agent rdf:type Agent .\n  ?agent hasEthnicityRecord ?ethnicityRecord .\n  ?ethnicityRecord hasValue ?ethnicity .\n  ?agent hasOccupationRecord ?occupationRecord .\n  ?occupationRecord hasValue ?skills .\n  ?agent hasSexRecord ?sexRecord .\n  ?sexRecord hasValue ?gender .\n  ?agent hasEconomicValueRecord ?economicValueRecord .\n  ?economicValueRecord hasValue ?economicValue .\n  ?economicValueRecord hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:hasBeginning ?beginning .\n  ?beginning time:inXSDDateTime ?period .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?ethnicity ?skills ?gender ?period ?economicValue\nWHERE {\n  ?agentRecord rdf:type AgentRecord ;\n               hasTemporalExtent ?temporalExtent ;\n               hasEthnicity ?ethnicity ;\n               hasSkills ?skills ;\n               hasGender ?gender ;\n               hasEconomicValue ?economicValue .\n\n  ?temporalExtent time:fallsWithin ?period .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -2242,45 +2291,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -2290,35 +2343,35 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedAgent ?lifeOutcome
+SELECT ?lifeOutcome
 WHERE {
-  ?ship rdfs:label "XXX" .
-  ?disembarkEvent rdf:type Event ;
-                  recordedAt ?ship .
-  ?enslavedAgent hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord roleProvidedBy ?disembarkEvent ;
-              hasParticipantRoleType "Disembarked" .
-  ?enslavedAgent hasInterAgentRelationshipRecord ?relationshipRecord .
-  ?relationshipRecord hasInterAgentRelationshipType ?lifeOutcome .
+  ?shipEvent rdf:type Event ;
+             hasName "XXX" ;
+             hasEventType "disembarkation" ;
+             providesParticipantRole ?roleRecord .
+  ?roleRecord rdf:type ParticipantRoleRecord ;
+              roleProvidedBy ?enslavedEvent .
+  ?enslavedEvent hasEventType ?lifeOutcome .
+  FILTER (?lifeOutcome IN ("sale", "manumission", "death"))
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "31789747a7ca4b81b0af0bcd59cf6924",
+    "id": "7a1fd28d9f2c421f8cdb064ed72bc802",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 855,
-        "completion_tokens": 281,
-        "total_tokens": 1136
+        "prompt_tokens": 849,
+        "completion_tokens": 267,
+        "total_tokens": 1116
     },
-    "created": 1747163577,
+    "created": 1752720372,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedAgent ?lifeOutcome\nWHERE {\n  ?ship rdfs:label \"XXX\" .\n  ?disembarkEvent rdf:type Event ;\n                  recordedAt ?ship .\n  ?enslavedAgent hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord roleProvidedBy ?disembarkEvent ;\n              hasParticipantRoleType \"Disembarked\" .\n  ?enslavedAgent hasInterAgentRelationshipRecord ?relationshipRecord .\n  ?relationshipRecord hasInterAgentRelationshipType ?lifeOutcome .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?lifeOutcome\nWHERE {\n  ?shipEvent rdf:type Event ;\n             hasName \"XXX\" ;\n             hasEventType \"disembarkation\" ;\n             providesParticipantRole ?roleRecord .\n  ?roleRecord rdf:type ParticipantRoleRecord ;\n              roleProvidedBy ?enslavedEvent .\n  ?enslavedEvent hasEventType ?lifeOutcome .\n  FILTER (?lifeOutcome IN (\"sale\", \"manumission\", \"death\"))\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -2343,45 +2396,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -2391,41 +2448,36 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedIndividual ?fullName
+SELECT DISTINCT ?enslavedIndividual ?name
 WHERE {
-  ?enslavedIndividual rdf:type :Agent ;
-                      :hasNameRecord ?nameRecord .
-  ?nameRecord :hasPreferredNameVariant ?nameVariant .
-  ?nameVariant :fullNameAsString ?fullName .
-  ?enslavedIndividual :hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord :hasParticipantRoleType :Enslaved ;
-              :recordedAt ?event .
-  ?event :hasLocation ?location .
-  ?location :hasName "X" .
-  ?roleRecord :hasTemporalExtent ?temporalExtent .
-  ?temporalExtent time:hasBeginning ?beginning ;
-                  time:hasEnd ?end .
-  ?beginning time:inXSDDateTime "XXX" .
-  ?end time:inXSDDateTime "XXX" .
+  ?enslavedIndividual rdf:type :Agent .
+  ?enslavedIndividual :hasAgentRecord ?agentRecord .
+  ?agentRecord :recordedAt ?event .
+  ?event :hasName "X" .
+  ?agentRecord :hasTemporalExtent ?temporalExtent .
+  ?temporalExtent :fallsWithin ?timespan .
+  ?timespan time:startsAt "XXX-START"^^xsd:date .
+  ?timespan time:endsAt "XXX-END"^^xsd:date .
+  ?enslavedIndividual :hasName ?name .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "9096ee53acb741309752a686bb9bd8d2",
+    "id": "bb0442a6afe449a29ce2809825850d79",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 842,
-        "completion_tokens": 365,
-        "total_tokens": 1207
+        "prompt_tokens": 836,
+        "completion_tokens": 317,
+        "total_tokens": 1153
     },
-    "created": 1747163597,
+    "created": 1752720377,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedIndividual ?fullName\nWHERE {\n  ?enslavedIndividual rdf:type :Agent ;\n                      :hasNameRecord ?nameRecord .\n  ?nameRecord :hasPreferredNameVariant ?nameVariant .\n  ?nameVariant :fullNameAsString ?fullName .\n  ?enslavedIndividual :hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord :hasParticipantRoleType :Enslaved ;\n              :recordedAt ?event .\n  ?event :hasLocation ?location .\n  ?location :hasName \"X\" .\n  ?roleRecord :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent time:hasBeginning ?beginning ;\n                  time:hasEnd ?end .\n  ?beginning time:inXSDDateTime \"XXX\" .\n  ?end time:inXSDDateTime \"XXX\" .\n}\n```",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT DISTINCT ?enslavedIndividual ?name\nWHERE {\n  ?enslavedIndividual rdf:type :Agent .\n  ?enslavedIndividual :hasAgentRecord ?agentRecord .\n  ?agentRecord :recordedAt ?event .\n  ?event :hasName \"X\" .\n  ?agentRecord :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent :fallsWithin ?timespan .\n  ?timespan time:startsAt \"XXX-START\"^^xsd:date .\n  ?timespan time:endsAt \"XXX-END\"^^xsd:date .\n  ?enslavedIndividual :hasName ?name .\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -2450,88 +2502,97 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+    <t>```sparql
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
 PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
 PREFIX time: &lt;http://www.w3.org/2006/time#&gt;
-SELECT ?enslavedAgent ?enslavedName ?ownerName ?ownershipEvent ?ownershipRole
+SELECT ?enslaved ?ownerRecord ?ownershipEvent ?ownershipRole ?ownershipType ?ownershipDate
 WHERE {
-  ?enslavedAgent rdf:type Agent ;
-                 hasParticipantRoleRecord ?enslavedRoleRecord .
-  ?enslavedRoleRecord hasParticipantRoleType "Enslaved" ;
-                      recordedAt ?enslavementEvent .
-  ?enslavedAgent hasParticipantRoleRecord ?ownerRoleRecord .
-  ?ownerRoleRecord hasParticipantRoleType "SlaveOwner" ;
-                   recordedAt ?ownershipEvent .
-  ?enslavedAgent hasNameRecord ?enslavedNameRecord .
-  ?enslavedNameRecord hasPreferredNameVariant ?enslavedNameVariant .
-  ?enslavedNameVariant fullNameAsString ?enslavedName .
-  ?enslavedAgent hasNameRecord ?ownerNameRecord .
-  ?ownerNameRecord hasPreferredNameVariant ?ownerNameVariant .
-  ?ownerNameVariant fullNameAsString ?ownerName .
-  ?ownerRoleRecord roleProvidedBy ?ownershipEvent .
-  ?ownershipEvent providesParticipantRole ?ownershipRole .
-}</t>
+  ?enslaved rdf:type Agent ;
+            hasAgentRecord ?enslavedRecord .
+  ?enslavedRecord rdf:type AgentRecord ;
+                  hasName "enslaved" ;
+                  hasTemporalExtent ?enslavedTemporalExtent .
+  ?enslavedTemporalExtent temporalExtentContains ?enslavedDate .
+  ?enslaved hasAgentRecord ?ownerRecord .
+  ?ownerRecord rdf:type AgentRecord ;
+               hasTemporalExtent ?ownerTemporalExtent ;
+               recordedAt ?ownershipEvent .
+  ?ownerTemporalExtent temporalExtentContains ?ownershipDate .
+  ?ownershipEvent rdf:type Event ;
+                  hasEventType "ownership" ;
+                  providesParticipantRole ?ownershipRole .
+  ?ownershipRole rdf:type ParticipantRoleRecord ;
+                 hasParticipantRoleType ?ownershipType ;
+                 roleProvidedBy ?ownershipEvent .
+  FILTER (?enslavedDate &lt; ?ownershipDate)
+}
+```</t>
   </si>
   <si>
     <t>{
-    "id": "377141c24a81474fa943568534c845dd",
+    "id": "40322e647d8141019eb2c7c2eb6079be",
     "object": "chat.completion",
     "model": "mistral-large-2411",
     "usage": {
-        "prompt_tokens": 846,
-        "completion_tokens": 407,
-        "total_tokens": 1253
+        "prompt_tokens": 840,
+        "completion_tokens": 429,
+        "total_tokens": 1269
     },
-    "created": 1747163612,
+    "created": 1752720381,
     "choices": [
         {
             "index": 0,
             "message": {
-                "content": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslavedAgent ?enslavedName ?ownerName ?ownershipEvent ?ownershipRole\nWHERE {\n  ?enslavedAgent rdf:type Agent ;\n                 hasParticipantRoleRecord ?enslavedRoleRecord .\n  ?enslavedRoleRecord hasParticipantRoleType \"Enslaved\" ;\n                      recordedAt ?enslavementEvent .\n  ?enslavedAgent hasParticipantRoleRecord ?ownerRoleRecord .\n  ?ownerRoleRecord hasParticipantRoleType \"SlaveOwner\" ;\n                   recordedAt ?ownershipEvent .\n  ?enslavedAgent hasNameRecord ?enslavedNameRecord .\n  ?enslavedNameRecord hasPreferredNameVariant ?enslavedNameVariant .\n  ?enslavedNameVariant fullNameAsString ?enslavedName .\n  ?enslavedAgent hasNameRecord ?ownerNameRecord .\n  ?ownerNameRecord hasPreferredNameVariant ?ownerNameVariant .\n  ?ownerNameVariant fullNameAsString ?ownerName .\n  ?ownerRoleRecord roleProvidedBy ?ownershipEvent .\n  ?ownershipEvent providesParticipantRole ?ownershipRole .\n}",
+                "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;\nPREFIX time: &lt;http://www.w3.org/2006/time#&gt;\n\nSELECT ?enslaved ?ownerRecord ?ownershipEvent ?ownershipRole ?ownershipType ?ownershipDate\nWHERE {\n  ?enslaved rdf:type Agent ;\n            hasAgentRecord ?enslavedRecord .\n  ?enslavedRecord rdf:type AgentRecord ;\n                  hasName \"enslaved\" ;\n                  hasTemporalExtent ?enslavedTemporalExtent .\n  ?enslavedTemporalExtent temporalExtentContains ?enslavedDate .\n\n  ?enslaved hasAgentRecord ?ownerRecord .\n  ?ownerRecord rdf:type AgentRecord ;\n               hasTemporalExtent ?ownerTemporalExtent ;\n               recordedAt ?ownershipEvent .\n  ?ownerTemporalExtent temporalExtentContains ?ownershipDate .\n\n  ?ownershipEvent rdf:type Event ;\n                  hasEventType \"ownership\" ;\n                  providesParticipantRole ?ownershipRole .\n  ?ownershipRole rdf:type ParticipantRoleRecord ;\n                 hasParticipantRoleType ?ownershipType ;\n                 roleProvidedBy ?ownershipEvent .\n\n  FILTER (?enslavedDate &lt; ?ownershipDate)\n}\n```",
                 "tool_calls": null,
                 "prefix": false,
                 "role": "assistant"
@@ -2558,7 +2619,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2914,7 +2974,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="50.6640625" style="2" customWidth="1"/>
+    <col min="1" max="4" width="50.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
